--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value30.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value30.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.059098171066725</v>
+        <v>3.027872562408447</v>
       </c>
       <c r="B1">
-        <v>1.084196420304965</v>
+        <v>2.58629846572876</v>
       </c>
       <c r="C1">
-        <v>1.136917878774247</v>
+        <v>2.648735761642456</v>
       </c>
       <c r="D1">
-        <v>1.551500355773132</v>
+        <v>3.541208267211914</v>
       </c>
       <c r="E1">
-        <v>2.809562270402734</v>
+        <v>5.760940074920654</v>
       </c>
     </row>
   </sheetData>
